--- a/BusyForcast/Lista.xlsx
+++ b/BusyForcast/Lista.xlsx
@@ -11,15 +11,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$153</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!#REF!</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="72">
   <si>
     <t>Employee Number</t>
   </si>
@@ -42,12 +40,6 @@
     <t>Discipline</t>
   </si>
   <si>
-    <t>Artur</t>
-  </si>
-  <si>
-    <t>Soluch</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -60,843 +52,177 @@
     <t>Structural</t>
   </si>
   <si>
-    <t>Rafal</t>
-  </si>
-  <si>
-    <t>Poborski</t>
-  </si>
-  <si>
     <t>Environmental Group Leader</t>
   </si>
   <si>
     <t>Environmental(inc Ecological Sustainable Design)</t>
   </si>
   <si>
-    <t>Jacek</t>
-  </si>
-  <si>
-    <t>Zalewski</t>
-  </si>
-  <si>
     <t>Environmental Engineer</t>
   </si>
   <si>
     <t>Water</t>
   </si>
   <si>
-    <t>Marcin</t>
-  </si>
-  <si>
     <t>Associate</t>
   </si>
   <si>
-    <t>Lukasz</t>
-  </si>
-  <si>
-    <t>Rakowski</t>
-  </si>
-  <si>
     <t>Mechanical Engineer</t>
   </si>
   <si>
     <t>Mechanical</t>
   </si>
   <si>
-    <t>Grzegorz</t>
-  </si>
-  <si>
-    <t>Nyc</t>
-  </si>
-  <si>
     <t>Health &amp; Safety Officer</t>
   </si>
   <si>
     <t>Administration</t>
   </si>
   <si>
-    <t>Bartosz</t>
-  </si>
-  <si>
-    <t>Niewiadomski</t>
-  </si>
-  <si>
     <t>Bulidings Group Leader</t>
   </si>
   <si>
     <t>Project Management(inc Programme Management and Construction Admin)</t>
   </si>
   <si>
-    <t>Piotr</t>
-  </si>
-  <si>
-    <t>Konarzewski</t>
-  </si>
-  <si>
     <t>Electrical Engineer</t>
   </si>
   <si>
     <t>Electrical</t>
   </si>
   <si>
-    <t>Urszula</t>
-  </si>
-  <si>
-    <t>Serafinska</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
     <t>Senior Specialist</t>
   </si>
   <si>
-    <t>Beata</t>
-  </si>
-  <si>
-    <t>Gogolewska-Kawka</t>
-  </si>
-  <si>
     <t>Business Development Co-ordinator</t>
   </si>
   <si>
-    <t>Pawel</t>
-  </si>
-  <si>
-    <t>Mikolowicz</t>
-  </si>
-  <si>
     <t>Senior Consultant</t>
   </si>
   <si>
-    <t>Ewa</t>
-  </si>
-  <si>
-    <t>Nalezyta</t>
-  </si>
-  <si>
     <t>Assistant</t>
   </si>
   <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Kilinska</t>
-  </si>
-  <si>
-    <t>Marta</t>
-  </si>
-  <si>
     <t>Senior Engineer</t>
   </si>
   <si>
-    <t>Tomasz</t>
-  </si>
-  <si>
-    <t>Lukawski</t>
-  </si>
-  <si>
     <t>Engineer</t>
   </si>
   <si>
-    <t>Gorka</t>
-  </si>
-  <si>
     <t>Network Administrator</t>
   </si>
   <si>
-    <t>Michal</t>
-  </si>
-  <si>
-    <t>Witkowski</t>
-  </si>
-  <si>
     <t>IT Support Analyst</t>
   </si>
   <si>
-    <t>Bernadetta</t>
-  </si>
-  <si>
-    <t>Badura</t>
-  </si>
-  <si>
-    <t>Sendrowicz</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Szafarczyk</t>
-  </si>
-  <si>
     <t>Senior Structural Engineer</t>
   </si>
   <si>
-    <t>Andrzej</t>
-  </si>
-  <si>
-    <t>Borowski</t>
-  </si>
-  <si>
-    <t>Jaroslaw</t>
-  </si>
-  <si>
-    <t>Witek</t>
-  </si>
-  <si>
-    <t>Maciej</t>
-  </si>
-  <si>
-    <t>Lewonowski</t>
-  </si>
-  <si>
-    <t>Giers</t>
-  </si>
-  <si>
-    <t>Katarzyna</t>
-  </si>
-  <si>
-    <t>Magdalena</t>
-  </si>
-  <si>
     <t>Management Consultancy</t>
   </si>
   <si>
-    <t>Moskala</t>
-  </si>
-  <si>
-    <t>Knapczyk</t>
-  </si>
-  <si>
     <t>Project Manager</t>
   </si>
   <si>
-    <t>Prochaczek</t>
-  </si>
-  <si>
-    <t>Zaneta</t>
-  </si>
-  <si>
-    <t>Bielicka</t>
-  </si>
-  <si>
     <t>Receptionist</t>
   </si>
   <si>
-    <t>Marek</t>
-  </si>
-  <si>
-    <t>Gorski</t>
-  </si>
-  <si>
-    <t>Skorupa</t>
-  </si>
-  <si>
-    <t>Wlecial</t>
-  </si>
-  <si>
     <t>Senior Mechanical Engineer</t>
   </si>
   <si>
     <t>Public Health/Plumbing</t>
   </si>
   <si>
-    <t>Oleszkowicz</t>
-  </si>
-  <si>
-    <t>Mariusz</t>
-  </si>
-  <si>
-    <t>Skruszeniec</t>
-  </si>
-  <si>
-    <t>Biernacki</t>
-  </si>
-  <si>
-    <t>Iza</t>
-  </si>
-  <si>
-    <t>Jaroszewicz</t>
-  </si>
-  <si>
     <t>Chief Accountant</t>
   </si>
   <si>
-    <t>Frej</t>
-  </si>
-  <si>
-    <t>Kasprzak</t>
-  </si>
-  <si>
     <t>Road Engineer</t>
   </si>
   <si>
     <t>Highways</t>
   </si>
   <si>
-    <t>Leszczynski</t>
-  </si>
-  <si>
     <t>Geotechnical</t>
   </si>
   <si>
-    <t>Wandzel</t>
-  </si>
-  <si>
-    <t>Potoczny</t>
-  </si>
-  <si>
     <t>Senior Electrical Engineer</t>
   </si>
   <si>
-    <t>Zygmunt</t>
-  </si>
-  <si>
-    <t>Tusinski</t>
-  </si>
-  <si>
     <t>Bridges</t>
   </si>
   <si>
-    <t>Dorota</t>
-  </si>
-  <si>
-    <t>Radzieta</t>
-  </si>
-  <si>
-    <t>Guz vel Guzowski</t>
-  </si>
-  <si>
-    <t>Krzysztof</t>
-  </si>
-  <si>
-    <t>Przybylski</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Borowicz</t>
-  </si>
-  <si>
-    <t>Jaworski</t>
-  </si>
-  <si>
-    <t>Wojcik</t>
-  </si>
-  <si>
-    <t>Tomaszewska</t>
-  </si>
-  <si>
-    <t>Napiorkowski</t>
-  </si>
-  <si>
-    <t>Macias</t>
-  </si>
-  <si>
     <t>Highways Engineer</t>
   </si>
   <si>
-    <t>Galecka</t>
-  </si>
-  <si>
     <t>Specialist</t>
   </si>
   <si>
-    <t>Milewski</t>
-  </si>
-  <si>
-    <t>Legucki</t>
-  </si>
-  <si>
     <t>Assistant Engineer</t>
   </si>
   <si>
-    <t>Kolodziejski</t>
-  </si>
-  <si>
-    <t>Mazgaj</t>
-  </si>
-  <si>
-    <t>Przemyslaw</t>
-  </si>
-  <si>
-    <t>Waledziak</t>
-  </si>
-  <si>
     <t>Aviation Specialist</t>
   </si>
   <si>
-    <t>Delikat</t>
-  </si>
-  <si>
-    <t>Jowita</t>
-  </si>
-  <si>
-    <t>Podraza</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Bak</t>
-  </si>
-  <si>
-    <t>Duszczyk</t>
-  </si>
-  <si>
     <t>Finance Manager</t>
   </si>
   <si>
-    <t>Kasia</t>
-  </si>
-  <si>
-    <t>Mowinska</t>
-  </si>
-  <si>
     <t>Payroll Manager</t>
   </si>
   <si>
-    <t>Edyta</t>
-  </si>
-  <si>
-    <t>Bachor</t>
-  </si>
-  <si>
     <t>Cost Engineer</t>
   </si>
   <si>
-    <t>Czarnak</t>
-  </si>
-  <si>
-    <t>Kuba</t>
-  </si>
-  <si>
-    <t>Lech</t>
-  </si>
-  <si>
     <t>QA Manager</t>
   </si>
   <si>
-    <t>Czapko</t>
-  </si>
-  <si>
-    <t>Dariusz</t>
-  </si>
-  <si>
-    <t>Szymanski</t>
-  </si>
-  <si>
-    <t>Kordian</t>
-  </si>
-  <si>
-    <t>Agnieszka</t>
-  </si>
-  <si>
-    <t>Leszczynska</t>
-  </si>
-  <si>
-    <t>Karolina</t>
-  </si>
-  <si>
-    <t>Tatys</t>
-  </si>
-  <si>
     <t>Senior Human Resources Officer</t>
   </si>
   <si>
-    <t>Ireneusz</t>
-  </si>
-  <si>
-    <t>Kolodziej</t>
-  </si>
-  <si>
     <t>Consultant</t>
   </si>
   <si>
-    <t>Arkadiusz</t>
-  </si>
-  <si>
-    <t>Surus</t>
-  </si>
-  <si>
-    <t>Krolikowska</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Klosinski</t>
-  </si>
-  <si>
-    <t>Damian</t>
-  </si>
-  <si>
-    <t>Bronowski</t>
-  </si>
-  <si>
-    <t>Janda</t>
-  </si>
-  <si>
-    <t>Ksiazkiewicz</t>
-  </si>
-  <si>
     <t>Business Administrator</t>
   </si>
   <si>
-    <t>Kupczyk</t>
-  </si>
-  <si>
-    <t>Jendrzejczak-Jendrzejewski</t>
-  </si>
-  <si>
     <t>Geotechnical Engineer</t>
   </si>
   <si>
-    <t>Woldan</t>
-  </si>
-  <si>
-    <t>Stanley</t>
-  </si>
-  <si>
-    <t>Akyea</t>
-  </si>
-  <si>
     <t>Graduate Engineer</t>
   </si>
   <si>
-    <t>Boryn</t>
-  </si>
-  <si>
-    <t>Porowska</t>
-  </si>
-  <si>
-    <t>Schielmann</t>
-  </si>
-  <si>
-    <t>Lukasiewicz</t>
-  </si>
-  <si>
-    <t>Malgorzata</t>
-  </si>
-  <si>
-    <t>Madalinska</t>
-  </si>
-  <si>
-    <t>Cwiek</t>
-  </si>
-  <si>
-    <t>Emilian</t>
-  </si>
-  <si>
-    <t>Szarow</t>
-  </si>
-  <si>
-    <t>Karwat</t>
-  </si>
-  <si>
-    <t>Jakub</t>
-  </si>
-  <si>
-    <t>Gajdzinski</t>
-  </si>
-  <si>
-    <t>Kmieciak</t>
-  </si>
-  <si>
     <t>IT Analyst/Support</t>
   </si>
   <si>
     <t>Junior IT Manager</t>
   </si>
   <si>
-    <t>Jajesnica</t>
-  </si>
-  <si>
-    <t>Jedra</t>
-  </si>
-  <si>
-    <t>Miroslaw</t>
-  </si>
-  <si>
-    <t>Bogusz</t>
-  </si>
-  <si>
-    <t>Izdebska</t>
-  </si>
-  <si>
-    <t>Justyna</t>
-  </si>
-  <si>
-    <t>Wyrzykowska</t>
-  </si>
-  <si>
     <t>Accountant</t>
   </si>
   <si>
-    <t>Gajda</t>
-  </si>
-  <si>
-    <t>Maksymilian</t>
-  </si>
-  <si>
-    <t>Rogowski</t>
-  </si>
-  <si>
     <t>Specialist GIS</t>
   </si>
   <si>
-    <t>Kita</t>
-  </si>
-  <si>
     <t>Junior Graphic Designer</t>
   </si>
   <si>
-    <t>Lacny</t>
-  </si>
-  <si>
-    <t>Czarnecki</t>
-  </si>
-  <si>
     <t>Senior Bridges Engineer</t>
   </si>
   <si>
-    <t>Zieniuk</t>
-  </si>
-  <si>
-    <t>Iwona</t>
-  </si>
-  <si>
-    <t>Krupka-Opas</t>
-  </si>
-  <si>
-    <t>Puchala</t>
-  </si>
-  <si>
-    <t>Szatan</t>
-  </si>
-  <si>
-    <t>Dudek</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Drozd</t>
-  </si>
-  <si>
     <t>GIS Specialist</t>
   </si>
   <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Ciesielski</t>
-  </si>
-  <si>
-    <t>Dastin</t>
-  </si>
-  <si>
-    <t>Adamowski</t>
-  </si>
-  <si>
-    <t>Monika</t>
-  </si>
-  <si>
-    <t>Torba</t>
-  </si>
-  <si>
-    <t>Maj</t>
-  </si>
-  <si>
     <t>Assistant Project Manager</t>
   </si>
   <si>
-    <t>Opolski</t>
-  </si>
-  <si>
     <t>Technician</t>
   </si>
   <si>
-    <t>Chrominski</t>
-  </si>
-  <si>
-    <t>Tomek</t>
-  </si>
-  <si>
-    <t>Rybus</t>
-  </si>
-  <si>
-    <t>Szewczuk</t>
-  </si>
-  <si>
-    <t>Jakubowski</t>
-  </si>
-  <si>
-    <t>Malanowski</t>
-  </si>
-  <si>
-    <t>Paluch</t>
-  </si>
-  <si>
-    <t>Dudelewicz</t>
-  </si>
-  <si>
-    <t>Kapera</t>
-  </si>
-  <si>
-    <t>Skwarek</t>
-  </si>
-  <si>
-    <t>Karina</t>
-  </si>
-  <si>
-    <t>Zablocka</t>
-  </si>
-  <si>
-    <t>Oleg</t>
-  </si>
-  <si>
-    <t>Iaremov</t>
-  </si>
-  <si>
-    <t>Chetnik</t>
-  </si>
-  <si>
-    <t>Rafał</t>
-  </si>
-  <si>
-    <t>Nowak</t>
-  </si>
-  <si>
-    <t>Ganczar</t>
-  </si>
-  <si>
-    <t>Szymczak</t>
-  </si>
-  <si>
-    <t>Michał</t>
-  </si>
-  <si>
-    <t>Filipek</t>
-  </si>
-  <si>
-    <t>Aleksandra</t>
-  </si>
-  <si>
-    <t>Murzyn</t>
-  </si>
-  <si>
-    <t>Barbara</t>
-  </si>
-  <si>
-    <t>Rymar</t>
-  </si>
-  <si>
-    <t>Kaszyca</t>
-  </si>
-  <si>
-    <t>Malinowska-Glixelli</t>
-  </si>
-  <si>
-    <t>Kepa</t>
-  </si>
-  <si>
-    <t>Olszewska</t>
-  </si>
-  <si>
-    <t>Kinga</t>
-  </si>
-  <si>
-    <t>Marecik</t>
-  </si>
-  <si>
-    <t>Paulina</t>
-  </si>
-  <si>
-    <t>Pietrzak</t>
-  </si>
-  <si>
-    <t>Bogumil</t>
-  </si>
-  <si>
-    <t>Lipiecki</t>
-  </si>
-  <si>
     <t>Senior Geotechnical Engineer</t>
   </si>
   <si>
-    <t>Ariel</t>
-  </si>
-  <si>
-    <t>Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Okulowska</t>
-  </si>
-  <si>
-    <t>Grabowiecka-Bukat</t>
-  </si>
-  <si>
-    <t>Szczepara</t>
-  </si>
-  <si>
-    <t>Sylwia</t>
-  </si>
-  <si>
-    <t>Zieba</t>
-  </si>
-  <si>
-    <t>Gancarczyk</t>
-  </si>
-  <si>
-    <t>Ilona</t>
-  </si>
-  <si>
-    <t>Laskowska</t>
-  </si>
-  <si>
-    <t>Patryk</t>
-  </si>
-  <si>
-    <t>Stawiany</t>
-  </si>
-  <si>
-    <t>Dolega-Otocki</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Szczesna</t>
-  </si>
-  <si>
-    <t>Marlena</t>
-  </si>
-  <si>
-    <t>Maczka</t>
-  </si>
-  <si>
-    <t>Glixelli</t>
-  </si>
-  <si>
-    <t>Hetmanski</t>
-  </si>
-  <si>
-    <t>Ozog</t>
-  </si>
-  <si>
-    <t>Krzan</t>
-  </si>
-  <si>
-    <t>Bianchi</t>
-  </si>
-  <si>
-    <t>Joanna</t>
-  </si>
-  <si>
-    <t>Malanowska</t>
-  </si>
-  <si>
     <t>Analyst</t>
   </si>
   <si>
@@ -904,6 +230,9 @@
   </si>
   <si>
     <t>count</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +694,7 @@
   <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,10 +731,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>293</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>294</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1413,22 +742,22 @@
         <v>26591</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -1441,23 +770,23 @@
       <c r="A3" s="2">
         <v>16848</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>140</v>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -1470,23 +799,23 @@
       <c r="A4" s="2">
         <v>32578</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -1499,23 +828,23 @@
       <c r="A5" s="2">
         <v>63459</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>159</v>
+      <c r="B5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -1528,23 +857,23 @@
       <c r="A6" s="2">
         <v>30458</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>44</v>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -1557,23 +886,23 @@
       <c r="A7" s="2">
         <v>69661</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>50</v>
+      <c r="B7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -1586,23 +915,23 @@
       <c r="A8" s="2">
         <v>28920</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>143</v>
+      <c r="B8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -1615,23 +944,23 @@
       <c r="A9" s="2">
         <v>62888</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>59</v>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -1644,23 +973,23 @@
       <c r="A10" s="2">
         <v>53136</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>62</v>
+      <c r="B10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1673,23 +1002,23 @@
       <c r="A11" s="2">
         <v>49711</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>125</v>
+      <c r="B11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1702,23 +1031,23 @@
       <c r="A12" s="2">
         <v>34824</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>150</v>
+      <c r="B12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -1731,23 +1060,23 @@
       <c r="A13" s="2">
         <v>43054</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>172</v>
+      <c r="B13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -1760,23 +1089,23 @@
       <c r="A14" s="2">
         <v>29344</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>184</v>
+      <c r="B14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1789,23 +1118,23 @@
       <c r="A15" s="2">
         <v>31086</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>202</v>
+      <c r="B15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>203</v>
+        <v>60</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>203</v>
+        <v>60</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -1818,23 +1147,23 @@
       <c r="A16" s="2">
         <v>65321</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>208</v>
+      <c r="B16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -1847,23 +1176,23 @@
       <c r="A17" s="2">
         <v>57650</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>235</v>
+      <c r="B17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -1876,23 +1205,23 @@
       <c r="A18" s="2">
         <v>53839</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>240</v>
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>194</v>
+        <v>58</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H18">
         <v>4</v>
@@ -1905,23 +1234,23 @@
       <c r="A19" s="2">
         <v>64928</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>193</v>
+      <c r="B19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>194</v>
+        <v>58</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>195</v>
+        <v>59</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -1934,23 +1263,23 @@
       <c r="A20" s="2">
         <v>57242</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>85</v>
+      <c r="B20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1963,23 +1292,23 @@
       <c r="A21" s="2">
         <v>46475</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>200</v>
+      <c r="B21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -1992,23 +1321,23 @@
       <c r="A22" s="2">
         <v>58969</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>227</v>
+      <c r="B22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2021,23 +1350,23 @@
       <c r="A23" s="2">
         <v>46829</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>211</v>
+      <c r="B23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="H23">
         <v>7</v>
@@ -2050,23 +1379,23 @@
       <c r="A24" s="2">
         <v>55210</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>110</v>
+      <c r="B24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -2079,23 +1408,23 @@
       <c r="A25" s="2">
         <v>54826</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>119</v>
+      <c r="B25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="H25">
         <v>5</v>
@@ -2108,23 +1437,23 @@
       <c r="A26" s="2">
         <v>55484</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>241</v>
+      <c r="B26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -2137,23 +1466,23 @@
       <c r="A27" s="2">
         <v>61727</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>275</v>
+      <c r="B27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="H27">
         <v>4</v>
@@ -2166,23 +1495,23 @@
       <c r="A28" s="2">
         <v>56563</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>196</v>
+      <c r="B28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -2195,23 +1524,23 @@
       <c r="A29" s="2">
         <v>62490</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>286</v>
+      <c r="B29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -2224,23 +1553,23 @@
       <c r="A30" s="2">
         <v>62491</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>287</v>
+      <c r="B30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -2253,23 +1582,23 @@
       <c r="A31" s="2">
         <v>66026</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>248</v>
+      <c r="B31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -2282,23 +1611,23 @@
       <c r="A32" s="2">
         <v>64140</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>260</v>
+      <c r="B32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -2311,23 +1640,23 @@
       <c r="A33" s="2">
         <v>63700</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>262</v>
+      <c r="B33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -2340,23 +1669,23 @@
       <c r="A34" s="2">
         <v>24137</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>36</v>
+      <c r="B34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="G34" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H34">
         <v>8</v>
@@ -2369,23 +1698,23 @@
       <c r="A35" s="2">
         <v>20293</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="G35" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H35">
         <v>7</v>
@@ -2398,23 +1727,23 @@
       <c r="A36" s="2">
         <v>37376</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>88</v>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H36">
         <v>6</v>
@@ -2427,23 +1756,23 @@
       <c r="A37" s="2">
         <v>31867</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>100</v>
+      <c r="B37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H37">
         <v>6</v>
@@ -2456,23 +1785,23 @@
       <c r="A38" s="2">
         <v>38025</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>107</v>
+      <c r="B38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H38">
         <v>6</v>
@@ -2485,23 +1814,23 @@
       <c r="A39" s="2">
         <v>34636</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>118</v>
+      <c r="B39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H39">
         <v>5</v>
@@ -2514,23 +1843,23 @@
       <c r="A40" s="2">
         <v>37403</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>120</v>
+      <c r="B40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -2543,23 +1872,23 @@
       <c r="A41" s="2">
         <v>35187</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>154</v>
+      <c r="B41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -2572,23 +1901,23 @@
       <c r="A42" s="2">
         <v>34453</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>166</v>
+      <c r="B42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H42">
         <v>4</v>
@@ -2601,23 +1930,23 @@
       <c r="A43" s="2">
         <v>48904</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>177</v>
+      <c r="B43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H43">
         <v>4</v>
@@ -2630,23 +1959,23 @@
       <c r="A44" s="2">
         <v>46390</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>181</v>
+      <c r="B44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H44">
         <v>4</v>
@@ -2659,23 +1988,23 @@
       <c r="A45" s="2">
         <v>39063</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>190</v>
+      <c r="B45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H45">
         <v>4</v>
@@ -2688,23 +2017,23 @@
       <c r="A46" s="2">
         <v>53838</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>210</v>
+      <c r="B46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H46">
         <v>4</v>
@@ -2717,23 +2046,23 @@
       <c r="A47" s="2">
         <v>52928</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>245</v>
+      <c r="B47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -2746,23 +2075,23 @@
       <c r="A48" s="2">
         <v>55667</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>246</v>
+      <c r="B48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -2775,23 +2104,23 @@
       <c r="A49" s="2">
         <v>66025</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>257</v>
+      <c r="B49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -2804,23 +2133,23 @@
       <c r="A50" s="2">
         <v>66027</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>279</v>
+      <c r="B50" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -2833,23 +2162,23 @@
       <c r="A51" s="2">
         <v>66132</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>14</v>
+      <c r="B51" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H51">
         <v>8</v>
@@ -2862,23 +2191,23 @@
       <c r="A52" s="2">
         <v>44064</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>40</v>
+      <c r="B52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H52">
         <v>6</v>
@@ -2891,23 +2220,23 @@
       <c r="A53" s="2">
         <v>46283</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>47</v>
+      <c r="B53" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H53">
         <v>5</v>
@@ -2920,23 +2249,23 @@
       <c r="A54" s="2">
         <v>40313</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>53</v>
+      <c r="B54" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H54">
         <v>5</v>
@@ -2949,23 +2278,23 @@
       <c r="A55" s="2">
         <v>38896</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>186</v>
+      <c r="B55" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H55">
         <v>5</v>
@@ -2978,23 +2307,23 @@
       <c r="A56" s="6">
         <v>41935</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>57</v>
+      <c r="B56" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H56" s="8">
         <v>4</v>
@@ -3007,23 +2336,23 @@
       <c r="A57" s="2">
         <v>29703</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>271</v>
+      <c r="B57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H57">
         <v>4</v>
@@ -3036,23 +2365,23 @@
       <c r="A58" s="2">
         <v>56163</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>206</v>
+      <c r="B58" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>207</v>
+        <v>61</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -3065,23 +2394,23 @@
       <c r="A59" s="2">
         <v>28118</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>104</v>
+      <c r="B59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="H59">
         <v>7</v>
@@ -3094,23 +2423,23 @@
       <c r="A60" s="2">
         <v>26954</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>266</v>
+      <c r="B60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="H60">
         <v>6</v>
@@ -3123,23 +2452,23 @@
       <c r="A61" s="2">
         <v>37892</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>122</v>
+      <c r="B61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="H61">
         <v>4</v>
@@ -3152,23 +2481,23 @@
       <c r="A62" s="2">
         <v>45145</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>175</v>
+      <c r="B62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="H62">
         <v>4</v>
@@ -3181,23 +2510,23 @@
       <c r="A63" s="2">
         <v>55201</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>130</v>
+      <c r="B63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -3210,23 +2539,23 @@
       <c r="A64" s="2">
         <v>63272</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>243</v>
+      <c r="B64" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -3239,23 +2568,23 @@
       <c r="A65" s="2">
         <v>23844</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>101</v>
+      <c r="B65" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="H65">
         <v>7</v>
@@ -3268,23 +2597,23 @@
       <c r="A66" s="2">
         <v>55628</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>106</v>
+      <c r="B66" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="H66">
         <v>5</v>
@@ -3297,23 +2626,23 @@
       <c r="A67" s="2">
         <v>46239</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>270</v>
+      <c r="B67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="H67">
         <v>5</v>
@@ -3326,23 +2655,23 @@
       <c r="A68" s="2">
         <v>44320</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>123</v>
+      <c r="B68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="H68">
         <v>4</v>
@@ -3355,23 +2684,23 @@
       <c r="A69" s="2">
         <v>62399</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>128</v>
+      <c r="B69" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -3384,23 +2713,23 @@
       <c r="A70" s="2">
         <v>52960</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>232</v>
+      <c r="B70" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -3413,23 +2742,23 @@
       <c r="A71" s="2">
         <v>33713</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>162</v>
+      <c r="B71" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>8</v>
@@ -3442,23 +2771,23 @@
       <c r="A72" s="2">
         <v>46569</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>183</v>
+      <c r="B72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>6</v>
@@ -3471,23 +2800,23 @@
       <c r="A73" s="2">
         <v>62411</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>93</v>
+      <c r="B73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>5</v>
@@ -3500,23 +2829,23 @@
       <c r="A74" s="2">
         <v>43497</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="F74" s="3" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="H74">
         <v>5</v>
@@ -3529,23 +2858,23 @@
       <c r="A75" s="2">
         <v>44537</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>289</v>
+      <c r="B75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="H75">
         <v>5</v>
@@ -3558,23 +2887,23 @@
       <c r="A76" s="2">
         <v>49058</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>291</v>
+      <c r="B76" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>292</v>
+        <v>68</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>292</v>
+        <v>68</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>5</v>
@@ -3587,23 +2916,23 @@
       <c r="A77" s="2">
         <v>52065</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>148</v>
+      <c r="B77" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -3616,23 +2945,23 @@
       <c r="A78" s="2">
         <v>54715</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>133</v>
+      <c r="B78" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -3645,23 +2974,23 @@
       <c r="A79" s="2">
         <v>69127</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>157</v>
+      <c r="B79" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -3674,23 +3003,23 @@
       <c r="A80" s="2">
         <v>22640</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>24</v>
+      <c r="B80" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H80">
         <v>8</v>
@@ -3703,23 +3032,23 @@
       <c r="A81" s="2">
         <v>36265</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>73</v>
+      <c r="B81" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H81">
         <v>7</v>
@@ -3732,23 +3061,23 @@
       <c r="A82" s="2">
         <v>27428</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>89</v>
+      <c r="B82" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H82">
         <v>6</v>
@@ -3761,23 +3090,23 @@
       <c r="A83" s="2">
         <v>36884</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>96</v>
+      <c r="B83" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H83">
         <v>6</v>
@@ -3790,23 +3119,23 @@
       <c r="A84" s="2">
         <v>29654</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>121</v>
+      <c r="B84" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H84">
         <v>5</v>
@@ -3819,23 +3148,23 @@
       <c r="A85" s="2">
         <v>39356</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>127</v>
+      <c r="B85" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H85">
         <v>5</v>
@@ -3848,23 +3177,23 @@
       <c r="A86" s="2">
         <v>45794</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>131</v>
+      <c r="B86" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H86">
         <v>5</v>
@@ -3877,23 +3206,23 @@
       <c r="A87" s="2">
         <v>32043</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>137</v>
+      <c r="B87" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H87">
         <v>5</v>
@@ -3906,23 +3235,23 @@
       <c r="A88" s="2">
         <v>49986</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>139</v>
+      <c r="B88" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H88">
         <v>5</v>
@@ -3935,23 +3264,23 @@
       <c r="A89" s="2">
         <v>48146</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>135</v>
+      <c r="B89" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H89">
         <v>4</v>
@@ -3964,23 +3293,23 @@
       <c r="A90" s="2">
         <v>34139</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>101</v>
+      <c r="B90" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H90">
         <v>4</v>
@@ -3993,23 +3322,23 @@
       <c r="A91" s="2">
         <v>55663</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>168</v>
+      <c r="B91" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H91">
         <v>4</v>
@@ -4022,23 +3351,23 @@
       <c r="A92" s="2">
         <v>34290</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>170</v>
+      <c r="B92" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H92">
         <v>4</v>
@@ -4051,23 +3380,23 @@
       <c r="A93" s="2">
         <v>54086</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>171</v>
+      <c r="B93" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H93">
         <v>4</v>
@@ -4080,23 +3409,23 @@
       <c r="A94" s="2">
         <v>48935</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>182</v>
+      <c r="B94" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H94">
         <v>4</v>
@@ -4109,23 +3438,23 @@
       <c r="A95" s="2">
         <v>50711</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>187</v>
+      <c r="B95" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H95">
         <v>4</v>
@@ -4138,23 +3467,23 @@
       <c r="A96" s="2">
         <v>52778</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>215</v>
+      <c r="B96" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -4167,23 +3496,23 @@
       <c r="A97" s="2">
         <v>58547</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>216</v>
+      <c r="B97" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H97">
         <v>4</v>
@@ -4196,23 +3525,23 @@
       <c r="A98" s="2">
         <v>52777</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>249</v>
+      <c r="B98" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -4225,23 +3554,23 @@
       <c r="A99" s="2">
         <v>55668</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>259</v>
+      <c r="B99" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H99">
         <v>3</v>
@@ -4254,23 +3583,23 @@
       <c r="A100" s="2">
         <v>60669</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>264</v>
+      <c r="B100" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -4283,23 +3612,23 @@
       <c r="A101" s="2">
         <v>69518</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>269</v>
+      <c r="B101" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -4312,23 +3641,23 @@
       <c r="A102" s="2">
         <v>55665</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>280</v>
+      <c r="B102" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -4341,23 +3670,23 @@
       <c r="A103" s="2">
         <v>58843</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>282</v>
+      <c r="B103" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H103">
         <v>2</v>
@@ -4370,23 +3699,23 @@
       <c r="A104" s="2">
         <v>68360</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>284</v>
+      <c r="B104" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -4399,23 +3728,23 @@
       <c r="A105" s="2">
         <v>69456</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>288</v>
+      <c r="B105" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -4428,23 +3757,23 @@
       <c r="A106" s="2">
         <v>45966</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>32</v>
+      <c r="B106" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H106">
         <v>8</v>
@@ -4457,23 +3786,23 @@
       <c r="A107" s="2">
         <v>27068</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>65</v>
+      <c r="B107" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H107">
         <v>8</v>
@@ -4486,23 +3815,23 @@
       <c r="A108" s="2">
         <v>18971</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>66</v>
+      <c r="B108" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H108">
         <v>7</v>
@@ -4515,23 +3844,23 @@
       <c r="A109" s="2">
         <v>34012</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>80</v>
+      <c r="B109" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H109">
         <v>7</v>
@@ -4544,23 +3873,23 @@
       <c r="A110" s="4">
         <v>42611</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>113</v>
+      <c r="B110" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H110">
         <v>4</v>
@@ -4573,23 +3902,23 @@
       <c r="A111" s="2">
         <v>54941</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>146</v>
+      <c r="B111" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H111">
         <v>4</v>
@@ -4602,23 +3931,23 @@
       <c r="A112" s="2">
         <v>56512</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>228</v>
+      <c r="B112" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>229</v>
+        <v>65</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>229</v>
+        <v>65</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H112">
         <v>4</v>
@@ -4631,23 +3960,23 @@
       <c r="A113" s="2">
         <v>67752</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>250</v>
+      <c r="B113" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -4660,23 +3989,23 @@
       <c r="A114" s="2">
         <v>63271</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>272</v>
+      <c r="B114" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -4689,23 +4018,23 @@
       <c r="A115" s="2">
         <v>54632</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>90</v>
+      <c r="B115" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="H115">
         <v>6</v>
@@ -4718,23 +4047,23 @@
       <c r="A116" s="2">
         <v>30312</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>95</v>
+      <c r="B116" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="H116">
         <v>6</v>
@@ -4747,23 +4076,23 @@
       <c r="A117" s="2">
         <v>34057</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>117</v>
+      <c r="B117" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="H117">
         <v>5</v>
@@ -4776,23 +4105,23 @@
       <c r="A118" s="2">
         <v>34641</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>197</v>
+      <c r="B118" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="H118">
         <v>5</v>
@@ -4805,23 +4134,23 @@
       <c r="A119" s="2">
         <v>45593</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>199</v>
+      <c r="B119" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="H119">
         <v>5</v>
@@ -4834,23 +4163,23 @@
       <c r="A120" s="2">
         <v>34138</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>165</v>
+      <c r="B120" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="H120">
         <v>4</v>
@@ -4863,23 +4192,23 @@
       <c r="A121" s="2">
         <v>52904</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>204</v>
+      <c r="B121" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>4</v>
@@ -4892,23 +4221,23 @@
       <c r="A122" s="2">
         <v>46912</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>213</v>
+      <c r="B122" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="H122">
         <v>4</v>
@@ -4921,23 +4250,23 @@
       <c r="A123" s="2">
         <v>26396</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" s="3" t="s">
+      <c r="B123" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="F123" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="G123" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="H123">
         <v>8</v>
@@ -4950,23 +4279,23 @@
       <c r="A124" s="2">
         <v>24956</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>68</v>
+      <c r="B124" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H124">
         <v>7</v>
@@ -4979,23 +4308,23 @@
       <c r="A125" s="2">
         <v>25021</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>75</v>
+      <c r="B125" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H125">
         <v>7</v>
@@ -5008,23 +4337,23 @@
       <c r="A126" s="2">
         <v>31095</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>76</v>
+      <c r="B126" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H126">
         <v>7</v>
@@ -5037,23 +4366,23 @@
       <c r="A127" s="2">
         <v>36006</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>81</v>
+      <c r="B127" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H127">
         <v>6</v>
@@ -5066,23 +4395,23 @@
       <c r="A128" s="2">
         <v>32499</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>83</v>
+      <c r="B128" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H128">
         <v>6</v>
@@ -5095,23 +4424,23 @@
       <c r="A129" s="2">
         <v>34480</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>114</v>
+      <c r="B129" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H129">
         <v>5</v>
@@ -5124,23 +4453,23 @@
       <c r="A130" s="2">
         <v>46709</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>116</v>
+      <c r="B130" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H130">
         <v>5</v>
@@ -5153,23 +4482,23 @@
       <c r="A131" s="2">
         <v>38087</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>174</v>
+      <c r="B131" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H131">
         <v>5</v>
@@ -5182,23 +4511,23 @@
       <c r="A132" s="2">
         <v>35630</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>189</v>
+      <c r="B132" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H132">
         <v>5</v>
@@ -5211,23 +4540,23 @@
       <c r="A133" s="2">
         <v>46449</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>192</v>
+      <c r="B133" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H133">
         <v>5</v>
@@ -5240,23 +4569,23 @@
       <c r="A134" s="2">
         <v>22831</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>152</v>
+      <c r="B134" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H134">
         <v>4</v>
@@ -5269,23 +4598,23 @@
       <c r="A135" s="2">
         <v>30301</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>230</v>
+      <c r="B135" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H135">
         <v>3</v>
@@ -5298,23 +4627,23 @@
       <c r="A136" s="2">
         <v>27790</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>234</v>
+      <c r="B136" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H136">
         <v>3</v>
@@ -5327,23 +4656,23 @@
       <c r="A137" s="2">
         <v>55485</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>236</v>
+      <c r="B137" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -5356,23 +4685,23 @@
       <c r="A138" s="2">
         <v>60363</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>239</v>
+      <c r="B138" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -5385,23 +4714,23 @@
       <c r="A139" s="2">
         <v>56254</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>252</v>
+      <c r="B139" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>229</v>
+        <v>65</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>229</v>
+        <v>65</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -5414,23 +4743,23 @@
       <c r="A140" s="2">
         <v>65767</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>254</v>
+      <c r="B140" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -5443,23 +4772,23 @@
       <c r="A141" s="2">
         <v>61232</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>256</v>
+      <c r="B141" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H141">
         <v>3</v>
@@ -5472,23 +4801,23 @@
       <c r="A142" s="2">
         <v>66204</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>274</v>
+      <c r="B142" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -5501,23 +4830,23 @@
       <c r="A143" s="2">
         <v>66205</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>277</v>
+      <c r="B143" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -5530,23 +4859,23 @@
       <c r="A144" s="2">
         <v>25192</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>18</v>
+      <c r="B144" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H144">
         <v>8</v>
@@ -5559,23 +4888,23 @@
       <c r="A145" s="2">
         <v>30375</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>285</v>
+      <c r="B145" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H145">
         <v>6</v>
@@ -5588,23 +4917,23 @@
       <c r="A146" s="2">
         <v>31681</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>238</v>
+      <c r="B146" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H146">
         <v>5</v>
@@ -5617,23 +4946,23 @@
       <c r="A147" s="2">
         <v>45703</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>217</v>
+      <c r="B147" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H147">
         <v>4</v>
@@ -5646,23 +4975,23 @@
       <c r="A148" s="2">
         <v>30377</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>258</v>
+      <c r="B148" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H148">
         <v>4</v>
@@ -5675,23 +5004,23 @@
       <c r="A149" s="2">
         <v>55209</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>218</v>
+      <c r="B149" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -5704,23 +5033,23 @@
       <c r="A150" s="2">
         <v>55031</v>
       </c>
-      <c r="B150" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>220</v>
+      <c r="B150" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H150">
         <v>3</v>
@@ -5733,23 +5062,23 @@
       <c r="A151" s="2">
         <v>54704</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>223</v>
+      <c r="B151" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>207</v>
+        <v>61</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H151">
         <v>3</v>
@@ -5762,23 +5091,23 @@
       <c r="A152" s="2">
         <v>66237</v>
       </c>
-      <c r="B152" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>179</v>
+      <c r="B152" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -5791,23 +5120,23 @@
       <c r="A153" s="2">
         <v>57179</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>225</v>
+      <c r="B153" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H153">
         <v>2</v>
